--- a/docs/BOM RFID DOMINATION TIMER.xlsx
+++ b/docs/BOM RFID DOMINATION TIMER.xlsx
@@ -52,16 +52,16 @@
     <t>CN0090</t>
   </si>
   <si>
-    <t>20 x 4 character LCD module</t>
+    <t>2004 I2C LCD</t>
   </si>
   <si>
     <t>LCD1</t>
   </si>
   <si>
-    <t>3390-LCM2004A-8-ND</t>
-  </si>
-  <si>
-    <t>LCM2004A-8</t>
+    <t>4411-CN0296D-ND</t>
+  </si>
+  <si>
+    <t>CN0296D</t>
   </si>
   <si>
     <t>BUZZER PIEZO 5V 12MM TH</t>
@@ -112,7 +112,7 @@
     <t>CF14JT10K0</t>
   </si>
   <si>
-    <t>Optional</t>
+    <t>Optional for pullup I2C</t>
   </si>
   <si>
     <t>LED GREEN DIFFUSED T-1 3/4 T/H</t>
@@ -487,6 +487,7 @@
     <col customWidth="1" min="2" max="2" width="9.75"/>
     <col customWidth="1" min="3" max="3" width="18.0"/>
     <col customWidth="1" min="4" max="4" width="10.88"/>
+    <col customWidth="1" min="5" max="5" width="17.63"/>
   </cols>
   <sheetData>
     <row r="1">
